--- a/resultFiles/Upload_Result.xlsx
+++ b/resultFiles/Upload_Result.xlsx
@@ -149,7 +149,7 @@
     <t>sudha</t>
   </si>
   <si>
-    <t>Sara</t>
+    <t>Varghese</t>
   </si>
   <si>
     <t>MK JH</t>
